--- a/src/main/webapp/importTpl/contractInfoImportTpl.xlsx
+++ b/src/main/webapp/importTpl/contractInfoImportTpl.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
   <si>
     <t>合同编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -99,11 +99,74 @@
   </si>
   <si>
     <t>付款方式(可为空)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>硬件</t>
+  </si>
+  <si>
+    <t>外包合同</t>
+  </si>
+  <si>
+    <t>公摊成本(可为空)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同方公司(可为空)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同方联系人(可为空)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同方联系部门(可为空)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同方电话(可为空)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同方通信地址(可为空)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同方邮编(可为空)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同级别信息(外包合同时，需填写)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级,5,200.00|中级,1,123.02|低级,6,10000.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HT2024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>航母4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WY005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王者5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同级别信息填写时，请使用英文逗号分隔</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
@@ -114,6 +177,7 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Tahoma"/>
@@ -122,56 +186,6 @@
       </rPr>
       <t>A-W</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HT2021</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>航母1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WY001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>硬件</t>
-  </si>
-  <si>
-    <t>外包合同</t>
-  </si>
-  <si>
-    <t>公摊成本(可为空)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同方公司(可为空)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同方联系人(可为空)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同方联系部门(可为空)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同方电话(可为空)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同方通信地址(可为空)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同方邮编(可为空)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -204,17 +218,19 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Tahoma"/>
       <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -238,7 +254,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -249,10 +265,16 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -615,37 +637,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y3"/>
+  <dimension ref="A1:AC3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W6" sqref="W6"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="3" width="9" style="2"/>
     <col min="4" max="4" width="10.5" style="2" customWidth="1"/>
-    <col min="5" max="6" width="13.5" style="2" customWidth="1"/>
-    <col min="7" max="8" width="13.125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="15.375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="11.5" style="2" customWidth="1"/>
-    <col min="11" max="11" width="10.375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="12.75" style="2" customWidth="1"/>
-    <col min="13" max="13" width="16.875" customWidth="1"/>
-    <col min="14" max="14" width="9" style="2"/>
-    <col min="15" max="15" width="14" style="2" customWidth="1"/>
-    <col min="16" max="16" width="10.875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="16" style="2" customWidth="1"/>
-    <col min="18" max="18" width="19.625" customWidth="1"/>
-    <col min="19" max="19" width="19.5" customWidth="1"/>
-    <col min="20" max="20" width="21.625" customWidth="1"/>
-    <col min="21" max="21" width="16.875" customWidth="1"/>
-    <col min="22" max="22" width="20.125" customWidth="1"/>
-    <col min="23" max="23" width="17.375" customWidth="1"/>
-    <col min="25" max="25" width="13.25" customWidth="1"/>
+    <col min="5" max="5" width="31.375" style="2" customWidth="1"/>
+    <col min="6" max="7" width="13.5" style="2" customWidth="1"/>
+    <col min="8" max="9" width="13.125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="15.375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="11.5" style="2" customWidth="1"/>
+    <col min="12" max="12" width="10.375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="12.75" style="2" customWidth="1"/>
+    <col min="14" max="14" width="16.875" customWidth="1"/>
+    <col min="15" max="15" width="9" style="2"/>
+    <col min="16" max="16" width="14" style="2" customWidth="1"/>
+    <col min="17" max="17" width="10.875" style="2" customWidth="1"/>
+    <col min="18" max="18" width="16" style="2" customWidth="1"/>
+    <col min="19" max="19" width="19.625" customWidth="1"/>
+    <col min="20" max="20" width="19.5" customWidth="1"/>
+    <col min="21" max="21" width="21.625" customWidth="1"/>
+    <col min="22" max="22" width="16.875" customWidth="1"/>
+    <col min="23" max="23" width="20.125" customWidth="1"/>
+    <col min="24" max="24" width="17.375" customWidth="1"/>
+    <col min="26" max="26" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:29">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -659,69 +682,72 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="U1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:29" ht="20.25" customHeight="1">
+      <c r="A2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25">
-      <c r="A2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>19</v>
@@ -729,101 +755,114 @@
       <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="1"/>
+      <c r="F2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="5">
+      <c r="J2" s="4">
         <v>50</v>
       </c>
-      <c r="J2" s="3">
+      <c r="K2" s="3">
         <v>42822</v>
       </c>
-      <c r="K2" s="3">
+      <c r="L2" s="3">
         <v>42828</v>
       </c>
-      <c r="L2" s="5">
+      <c r="M2" s="4">
         <v>500000</v>
       </c>
-      <c r="N2" s="5">
+      <c r="O2" s="4">
         <v>6</v>
       </c>
-      <c r="O2" s="2">
-        <f>L2*N2/100</f>
+      <c r="P2" s="2">
+        <f>M2*O2/100</f>
         <v>30000</v>
       </c>
-      <c r="P2" s="5">
+      <c r="Q2" s="4">
         <v>10</v>
       </c>
-      <c r="Q2" s="5">
-        <f>L2*P2/100</f>
+      <c r="R2" s="4">
+        <f>M2*Q2/100</f>
         <v>50000</v>
       </c>
-      <c r="Y2" s="4" t="s">
+      <c r="Z2" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="27.75">
+      <c r="A3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:25">
-      <c r="A3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="5">
+      <c r="J3" s="4">
         <v>50</v>
       </c>
-      <c r="J3" s="3">
+      <c r="K3" s="3">
         <v>42822</v>
       </c>
-      <c r="K3" s="3">
+      <c r="L3" s="3">
         <v>42828</v>
       </c>
-      <c r="L3" s="5">
+      <c r="M3" s="4">
         <v>500000</v>
       </c>
-      <c r="N3" s="5">
+      <c r="O3" s="4">
         <v>6</v>
       </c>
-      <c r="O3" s="2">
-        <f>L3*N3/100</f>
+      <c r="P3" s="2">
+        <f>M3*O3/100</f>
         <v>30000</v>
       </c>
-      <c r="P3" s="5">
+      <c r="Q3" s="4">
         <v>11</v>
       </c>
-      <c r="Q3" s="5">
-        <f>L3*P3/100</f>
+      <c r="R3" s="4">
+        <f>M3*Q3/100</f>
         <v>55000</v>
       </c>
+      <c r="Z3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA3" s="6"/>
+      <c r="AB3" s="6"/>
+      <c r="AC3" s="6"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="Z3:AC3"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">

--- a/src/main/webapp/importTpl/contractInfoImportTpl.xlsx
+++ b/src/main/webapp/importTpl/contractInfoImportTpl.xlsx
@@ -157,10 +157,6 @@
   </si>
   <si>
     <t>王者5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同级别信息填写时，请使用英文逗号分隔</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -186,6 +182,10 @@
       </rPr>
       <t>A-W</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同级别信息填写时，请使用英文逗号分隔,不同级别之间用"|"隔开。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -254,7 +254,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -271,10 +271,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -637,10 +638,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC3"/>
+  <dimension ref="A1:AF3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AG10" sqref="AG10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -668,7 +669,7 @@
     <col min="26" max="26" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:32">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -742,7 +743,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="20.25" customHeight="1">
+    <row r="2" spans="1:32" ht="20.25" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>33</v>
       </c>
@@ -794,11 +795,11 @@
         <f>M2*Q2/100</f>
         <v>50000</v>
       </c>
-      <c r="Z2" s="7" t="s">
-        <v>38</v>
+      <c r="Z2" s="6" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="27.75">
+    <row r="3" spans="1:32" ht="27.75">
       <c r="A3" s="2" t="s">
         <v>35</v>
       </c>
@@ -852,17 +853,17 @@
         <f>M3*Q3/100</f>
         <v>55000</v>
       </c>
-      <c r="Z3" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA3" s="6"/>
-      <c r="AB3" s="6"/>
-      <c r="AC3" s="6"/>
+      <c r="Z3" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA3" s="7"/>
+      <c r="AB3" s="7"/>
+      <c r="AC3" s="7"/>
+      <c r="AD3" s="8"/>
+      <c r="AE3" s="8"/>
+      <c r="AF3" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="Z3:AC3"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">

--- a/src/main/webapp/importTpl/contractInfoImportTpl.xlsx
+++ b/src/main/webapp/importTpl/contractInfoImportTpl.xlsx
@@ -90,10 +90,6 @@
     <t>戴彩霞</t>
   </si>
   <si>
-    <t>产品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>税费(可为空)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -102,9 +98,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>硬件</t>
-  </si>
-  <si>
     <t>外包合同</t>
   </si>
   <si>
@@ -136,27 +129,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>合同级别信息(外包合同时，需填写)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>高级,5,200.00|中级,1,123.02|低级,6,10000.00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HT2024</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>航母4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WY005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王者5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -185,7 +158,33 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>合同级别信息填写时，请使用英文逗号分隔,不同级别之间用"|"隔开。</t>
+    <t>外包</t>
+  </si>
+  <si>
+    <t>产品</t>
+  </si>
+  <si>
+    <t>人员级别信息(外包合同时，需填写)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人员级别信息填写时，请使用英文逗号分隔,不同级别之间用"|"隔开。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HT2029</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>航母9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WY0010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王者10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -640,8 +639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AF3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AG10" sqref="AG10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -683,7 +682,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>7</v>
@@ -710,48 +709,48 @@
         <v>6</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:32" ht="20.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
@@ -796,24 +795,24 @@
         <v>50000</v>
       </c>
       <c r="Z2" s="6" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:32" ht="27.75">
       <c r="A3" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>15</v>
@@ -854,7 +853,7 @@
         <v>55000</v>
       </c>
       <c r="Z3" s="7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AA3" s="7"/>
       <c r="AB3" s="7"/>

--- a/src/main/webapp/importTpl/contractInfoImportTpl.xlsx
+++ b/src/main/webapp/importTpl/contractInfoImportTpl.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
+    <workbookView xWindow="0" yWindow="108" windowWidth="12768" windowHeight="5712"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
   <si>
     <t>合同编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,18 +50,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>销售人员姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>咨询人员工号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>咨询人员姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>内部合同</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -74,10 +66,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>咨询分润比率(%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>W301</t>
   </si>
   <si>
@@ -98,9 +86,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>外包合同</t>
-  </si>
-  <si>
     <t>公摊成本(可为空)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -130,6 +115,49 @@
   </si>
   <si>
     <t>高级,5,200.00|中级,1,123.02|低级,6,10000.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品</t>
+  </si>
+  <si>
+    <t>航母9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王者10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WY0011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HT2030</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外部合同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咨询分润比率(%)，咨询不为空必填</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售人员姓名(可为空)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咨询人员姓名(可为空)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,6,1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -153,49 +181,27 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>A-W</t>
+      <t>A-X</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>外包</t>
-  </si>
-  <si>
-    <t>产品</t>
-  </si>
-  <si>
-    <t>人员级别信息(外包合同时，需填写)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人员级别信息填写时，请使用英文逗号分隔,不同级别之间用"|"隔开。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HT2029</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>航母9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WY0010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王者10</t>
+    <t>外包人员信息(外包合同时，需填写)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外包人员信息填写时，请使用英文逗号分隔字段（级别,目标数量,报价）,不同级别之间用"|"隔开。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -281,86 +287,23 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -427,6 +370,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -461,6 +405,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -636,39 +581,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="9" style="2"/>
     <col min="4" max="4" width="10.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="31.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="31.3984375" style="2" customWidth="1"/>
     <col min="6" max="7" width="13.5" style="2" customWidth="1"/>
-    <col min="8" max="9" width="13.125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="15.375" style="2" customWidth="1"/>
+    <col min="8" max="9" width="13.09765625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="30.09765625" style="2" customWidth="1"/>
     <col min="11" max="11" width="11.5" style="2" customWidth="1"/>
-    <col min="12" max="12" width="10.375" style="2" customWidth="1"/>
-    <col min="13" max="13" width="12.75" style="2" customWidth="1"/>
-    <col min="14" max="14" width="16.875" customWidth="1"/>
+    <col min="12" max="12" width="10.3984375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="12.69921875" style="2" customWidth="1"/>
+    <col min="14" max="14" width="16.8984375" customWidth="1"/>
     <col min="15" max="15" width="9" style="2"/>
     <col min="16" max="16" width="14" style="2" customWidth="1"/>
-    <col min="17" max="17" width="10.875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="10.8984375" style="2" customWidth="1"/>
     <col min="18" max="18" width="16" style="2" customWidth="1"/>
-    <col min="19" max="19" width="19.625" customWidth="1"/>
+    <col min="19" max="19" width="19.59765625" customWidth="1"/>
     <col min="20" max="20" width="19.5" customWidth="1"/>
-    <col min="21" max="21" width="21.625" customWidth="1"/>
-    <col min="22" max="22" width="16.875" customWidth="1"/>
-    <col min="23" max="23" width="20.125" customWidth="1"/>
-    <col min="24" max="24" width="17.375" customWidth="1"/>
-    <col min="26" max="26" width="13.25" customWidth="1"/>
+    <col min="21" max="21" width="21.59765625" customWidth="1"/>
+    <col min="22" max="22" width="16.8984375" customWidth="1"/>
+    <col min="23" max="23" width="20.09765625" customWidth="1"/>
+    <col min="24" max="24" width="17.3984375" customWidth="1"/>
+    <col min="26" max="26" width="13.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:32" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -682,22 +627,22 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>4</v>
@@ -709,64 +654,64 @@
         <v>6</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="R1" s="1" t="s">
+      <c r="U1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="U1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="V1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:32" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32" ht="20.25" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="J2" s="4">
         <v>50</v>
@@ -795,40 +740,34 @@
         <v>50000</v>
       </c>
       <c r="Z2" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:32" ht="27.75">
-      <c r="A3" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="B3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>21</v>
+        <v>29</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="4">
-        <v>50</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="4"/>
       <c r="K3" s="3">
         <v>42822</v>
       </c>
@@ -837,6 +776,9 @@
       </c>
       <c r="M3" s="4">
         <v>500000</v>
+      </c>
+      <c r="N3" t="s">
+        <v>36</v>
       </c>
       <c r="O3" s="4">
         <v>6</v>
@@ -853,7 +795,7 @@
         <v>55000</v>
       </c>
       <c r="Z3" s="7" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="AA3" s="7"/>
       <c r="AB3" s="7"/>
@@ -865,25 +807,25 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
-      <formula1>"内部合同,外包合同"</formula1>
-    </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576">
       <formula1>"产品,外包,硬件,公共,项目,推广,其他"</formula1>
     </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
+      <formula1>"内部合同,外部合同"</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -891,12 +833,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/webapp/importTpl/contractInfoImportTpl.xlsx
+++ b/src/main/webapp/importTpl/contractInfoImportTpl.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
   <si>
     <t>合同编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -159,11 +159,21 @@
   <si>
     <t>3,6,1</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外包人员信息(外包合同时，需填写)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外包人员信息填写时，请使用英文逗号分隔字段（级别,目标数量,报价）,不同级别之间用"|"隔开。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期必须是日期格式</t>
   </si>
   <si>
     <r>
       <rPr>
-        <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
@@ -174,7 +184,6 @@
     </r>
     <r>
       <rPr>
-        <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Tahoma"/>
@@ -185,14 +194,6 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
-  <si>
-    <t>外包人员信息(外包合同时，需填写)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>外包人员信息填写时，请使用英文逗号分隔字段（级别,目标数量,报价）,不同级别之间用"|"隔开。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
@@ -201,7 +202,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -231,7 +232,13 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Tahoma"/>
@@ -259,7 +266,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -276,11 +283,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -582,10 +593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF3"/>
+  <dimension ref="A1:AF4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AA9" sqref="AA9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -627,7 +638,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>7</v>
@@ -739,8 +750,8 @@
         <f>M2*Q2/100</f>
         <v>50000</v>
       </c>
-      <c r="Z2" s="6" t="s">
-        <v>37</v>
+      <c r="Z2" s="9" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:32" ht="28.8" x14ac:dyDescent="0.25">
@@ -794,15 +805,20 @@
         <f>M3*Q3/100</f>
         <v>55000</v>
       </c>
-      <c r="Z3" s="7" t="s">
+      <c r="Z3" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA3" s="6"/>
+      <c r="AB3" s="6"/>
+      <c r="AC3" s="6"/>
+      <c r="AD3" s="7"/>
+      <c r="AE3" s="7"/>
+      <c r="AF3" s="7"/>
+    </row>
+    <row r="4" spans="1:32" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="Z4" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="AA3" s="7"/>
-      <c r="AB3" s="7"/>
-      <c r="AC3" s="7"/>
-      <c r="AD3" s="8"/>
-      <c r="AE3" s="8"/>
-      <c r="AF3" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
